--- a/api/admin/input.xlsx
+++ b/api/admin/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skingenius_proj\skingenius\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\skingenius_proj\skingenius\api\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -64763,24 +64763,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002EBC39ACE723CB4188C3F6E6D92DC516" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8576f57e318fd59a8ae2259c62de722a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="8b2214b8-2145-421d-8bd3-42d2e33dbec0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1270eec3406b73ce4ba67ea49cff9ae0" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -64985,32 +64967,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8DD5901-7361-4481-A1AA-191EC6C9E6CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8b2214b8-2145-421d-8bd3-42d2e33dbec0"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F14FA9A-F92D-4739-A69F-26852E0AFB4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5D94C27-91D4-4C84-B13A-DD30F98DF3DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65027,4 +65002,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F14FA9A-F92D-4739-A69F-26852E0AFB4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8DD5901-7361-4481-A1AA-191EC6C9E6CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8b2214b8-2145-421d-8bd3-42d2e33dbec0"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>